--- a/data/trans_orig/P19F$mañana-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P19F$mañana-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C4A7AF45-C18A-4E74-9067-D804436B7730}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0C94A2DE-A79F-4333-936A-1C4BF7650D46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{7446206A-B879-47EE-8EED-01184F0D8C97}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{C7E80620-17F9-4EBB-939C-8B0BEDCD7696}"/>
   </bookViews>
   <sheets>
     <sheet name="2016" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="120">
   <si>
-    <t>Población según el momento del día en que acostumbra a cepillarse los dientes en 2016</t>
+    <t>Población según el momento del día en que acostumbra a cepillarse los dientes (multirrespuesta) en 2016</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -807,7 +807,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4E543BC-211F-4791-9F96-BF25DBBDEA47}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50D9875F-918F-426D-958E-2D3AE0A467AD}">
   <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
